--- a/pb_ex/model2scheme/frame.xlsx
+++ b/pb_ex/model2scheme/frame.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YandexDisk\schemes\pb_ex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YandexDisk\schemes\pb_ex\model2scheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A65B77-CC39-43B7-B466-8437F3AE6E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF21867-9816-4DFE-90B1-0ACA4CDE5968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{17FA2CC8-5503-44B9-AACD-3A0B6EFC8EF2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>design</t>
   </si>
@@ -33,18 +33,12 @@
     <t>verify</t>
   </si>
   <si>
-    <t>Корепанов</t>
-  </si>
-  <si>
     <t>norminspect</t>
   </si>
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>06.24</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
@@ -57,27 +51,9 @@
     <t>НПП ЭСН</t>
   </si>
   <si>
-    <t>Котельная по адресу: г.Воронеж, ул.Курчатова, 24б. Техническое перевооружение газового хозяйства с доведением до норм ФНП</t>
-  </si>
-  <si>
-    <t>Котел ДЕ-25-14ГМ №1. Автоматизация</t>
-  </si>
-  <si>
-    <t>Агафонов</t>
-  </si>
-  <si>
-    <t>Чураков</t>
-  </si>
-  <si>
     <t>РД</t>
   </si>
   <si>
-    <t>372-24-АК</t>
-  </si>
-  <si>
-    <t>Принициальная схема</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -90,7 +66,22 @@
     <t>firm</t>
   </si>
   <si>
-    <t>7</t>
+    <t>07.24</t>
+  </si>
+  <si>
+    <t>Принципиальная схема</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>Сидоров</t>
   </si>
 </sst>
 </file>
@@ -443,22 +434,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E88E28F-96D3-4105-8B29-7F0E9A23C55B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="116" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.1796875" bestFit="1" customWidth="1"/>
@@ -473,66 +464,57 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
